--- a/Code/Results/Cases/Case_9_46/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_46/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.025555876562918</v>
+        <v>1.023577390119389</v>
       </c>
       <c r="D2">
-        <v>1.041204138276721</v>
+        <v>1.038355825652132</v>
       </c>
       <c r="E2">
-        <v>1.035668118479365</v>
+        <v>1.034148255110863</v>
       </c>
       <c r="F2">
-        <v>1.040495174021306</v>
+        <v>1.039251839859542</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.05854126218703</v>
+        <v>1.056964358322938</v>
       </c>
       <c r="J2">
-        <v>1.046998187832181</v>
+        <v>1.045075069093344</v>
       </c>
       <c r="K2">
-        <v>1.052117796670387</v>
+        <v>1.049305464753053</v>
       </c>
       <c r="L2">
-        <v>1.046651936188496</v>
+        <v>1.04515149865605</v>
       </c>
       <c r="M2">
-        <v>1.051417765280743</v>
+        <v>1.05019013371215</v>
       </c>
       <c r="N2">
-        <v>1.018868982651062</v>
+        <v>1.018742079744342</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.049266050337822</v>
+        <v>1.048294473256356</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.047922016920261</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.045942171513079</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.024943607207743</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.029669824330274</v>
+        <v>1.027447326208144</v>
       </c>
       <c r="D3">
-        <v>1.044086249909684</v>
+        <v>1.040946805688733</v>
       </c>
       <c r="E3">
-        <v>1.038955921718046</v>
+        <v>1.037227145227485</v>
       </c>
       <c r="F3">
-        <v>1.043670877548153</v>
+        <v>1.042262491907731</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.059844369672912</v>
+        <v>1.058093824217001</v>
       </c>
       <c r="J3">
-        <v>1.049383087590815</v>
+        <v>1.047216722446508</v>
       </c>
       <c r="K3">
-        <v>1.054184481019942</v>
+        <v>1.051081258340211</v>
       </c>
       <c r="L3">
-        <v>1.049113484545969</v>
+        <v>1.047404864701117</v>
       </c>
       <c r="M3">
-        <v>1.053773885597515</v>
+        <v>1.052381731932781</v>
       </c>
       <c r="N3">
-        <v>1.019725316781235</v>
+        <v>1.019339809297437</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.051130736943569</v>
+        <v>1.050028955788049</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.049380676414373</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.047194874356034</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.025331112926661</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.032281750615456</v>
+        <v>1.029906108967608</v>
       </c>
       <c r="D4">
-        <v>1.045919093377079</v>
+        <v>1.042595981416899</v>
       </c>
       <c r="E4">
-        <v>1.041049052920359</v>
+        <v>1.039189196839079</v>
       </c>
       <c r="F4">
-        <v>1.045695477720691</v>
+        <v>1.044183581892265</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.060661858079835</v>
+        <v>1.058801633331629</v>
       </c>
       <c r="J4">
-        <v>1.050894243215123</v>
+        <v>1.048574562265945</v>
       </c>
       <c r="K4">
-        <v>1.055493188343597</v>
+        <v>1.052206117910478</v>
       </c>
       <c r="L4">
-        <v>1.050676063309743</v>
+        <v>1.048836576225513</v>
       </c>
       <c r="M4">
-        <v>1.055271989143728</v>
+        <v>1.053776464615811</v>
       </c>
       <c r="N4">
-        <v>1.020267726681002</v>
+        <v>1.019718914400343</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.05231636736513</v>
+        <v>1.051132778034099</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.050306905355678</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.047991194868048</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.025574263599179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.033373032522769</v>
+        <v>1.030933386075343</v>
       </c>
       <c r="D5">
-        <v>1.04668780272766</v>
+        <v>1.043288015462368</v>
       </c>
       <c r="E5">
-        <v>1.041925550518206</v>
+        <v>1.04001081343577</v>
       </c>
       <c r="F5">
-        <v>1.046543081901392</v>
+        <v>1.04498787903793</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.061002837687215</v>
+        <v>1.05909673295626</v>
       </c>
       <c r="J5">
-        <v>1.051526793754309</v>
+        <v>1.049142907162286</v>
       </c>
       <c r="K5">
-        <v>1.056042289533233</v>
+        <v>1.052678399124171</v>
       </c>
       <c r="L5">
-        <v>1.051330400320095</v>
+        <v>1.049436071641238</v>
       </c>
       <c r="M5">
-        <v>1.055899090939804</v>
+        <v>1.054360278880178</v>
       </c>
       <c r="N5">
-        <v>1.020496168395054</v>
+        <v>1.019878535040551</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.052812668262947</v>
+        <v>1.051594821052347</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.050702224865961</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.048332915840899</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.025676724592022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.033561483201104</v>
+        <v>1.031110290580382</v>
       </c>
       <c r="D6">
-        <v>1.046823314292918</v>
+        <v>1.043410050826639</v>
       </c>
       <c r="E6">
-        <v>1.042077755725325</v>
+        <v>1.040152982894495</v>
       </c>
       <c r="F6">
-        <v>1.046689246936086</v>
+        <v>1.045126150834463</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.061063803353535</v>
+        <v>1.059149559287516</v>
       </c>
       <c r="J6">
-        <v>1.05163832654775</v>
+        <v>1.049242870769213</v>
       </c>
       <c r="K6">
-        <v>1.05614090194868</v>
+        <v>1.052763513266834</v>
       </c>
       <c r="L6">
-        <v>1.051445299133718</v>
+        <v>1.049540947104644</v>
       </c>
       <c r="M6">
-        <v>1.056008238299643</v>
+        <v>1.054461540562814</v>
       </c>
       <c r="N6">
-        <v>1.020538203180424</v>
+        <v>1.019907716205275</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.05289904963208</v>
+        <v>1.051674961671415</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.050780570129509</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.04840259399109</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.025696289646158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.032312279666916</v>
+        <v>1.029942719101886</v>
       </c>
       <c r="D7">
-        <v>1.045947879783137</v>
+        <v>1.042628986293917</v>
       </c>
       <c r="E7">
-        <v>1.041075669517636</v>
+        <v>1.03922105499336</v>
       </c>
       <c r="F7">
-        <v>1.045718335799241</v>
+        <v>1.044210576745398</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.060677374700284</v>
+        <v>1.058820267328279</v>
       </c>
       <c r="J7">
-        <v>1.050918253299613</v>
+        <v>1.048604485066207</v>
       </c>
       <c r="K7">
-        <v>1.055518837593936</v>
+        <v>1.052235925310418</v>
       </c>
       <c r="L7">
-        <v>1.050699545291839</v>
+        <v>1.048865234203281</v>
       </c>
       <c r="M7">
-        <v>1.055291773156035</v>
+        <v>1.053800334231039</v>
       </c>
       <c r="N7">
-        <v>1.020281201415462</v>
+        <v>1.01975728692813</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.052332024832971</v>
+        <v>1.051151668960542</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.050344870938247</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.048034117527745</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.025585177646598</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.026976930540268</v>
+        <v>1.024940434456703</v>
       </c>
       <c r="D8">
-        <v>1.042208020109358</v>
+        <v>1.039279680304014</v>
       </c>
       <c r="E8">
-        <v>1.036805445178878</v>
+        <v>1.035236848761538</v>
       </c>
       <c r="F8">
-        <v>1.041589459821599</v>
+        <v>1.040307436553257</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.05900074099774</v>
+        <v>1.057378306057009</v>
       </c>
       <c r="J8">
-        <v>1.047830515624185</v>
+        <v>1.045849100207538</v>
       </c>
       <c r="K8">
-        <v>1.052845069944276</v>
+        <v>1.049952625339824</v>
       </c>
       <c r="L8">
-        <v>1.047508915800456</v>
+        <v>1.045959765883764</v>
       </c>
       <c r="M8">
-        <v>1.052234070979541</v>
+        <v>1.050967754861572</v>
       </c>
       <c r="N8">
-        <v>1.019174241193012</v>
+        <v>1.019044346626796</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.04991209355329</v>
+        <v>1.048909901441222</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.04845885983654</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.046424655077405</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.025093606923577</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.017148133751877</v>
+        <v>1.01571187973997</v>
       </c>
       <c r="D9">
-        <v>1.035332579872658</v>
+        <v>1.033111263626278</v>
       </c>
       <c r="E9">
-        <v>1.028982307499736</v>
+        <v>1.027928476670038</v>
       </c>
       <c r="F9">
-        <v>1.034052647754626</v>
+        <v>1.033177504812012</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.055825994054479</v>
+        <v>1.054624979666794</v>
       </c>
       <c r="J9">
-        <v>1.042109547638549</v>
+        <v>1.040721755200492</v>
       </c>
       <c r="K9">
-        <v>1.047877288611578</v>
+        <v>1.045689041912994</v>
       </c>
       <c r="L9">
-        <v>1.041622038128923</v>
+        <v>1.040584120908548</v>
       </c>
       <c r="M9">
-        <v>1.046616389251977</v>
+        <v>1.045754294325581</v>
       </c>
       <c r="N9">
-        <v>1.017113723068416</v>
+        <v>1.017621314850282</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.045466118871801</v>
+        <v>1.044783832880521</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.044943245727352</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.043406664371255</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.02414772289128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.010403988069236</v>
+        <v>1.009424046236775</v>
       </c>
       <c r="D10">
-        <v>1.030644921503201</v>
+        <v>1.02894177940221</v>
       </c>
       <c r="E10">
-        <v>1.023696767193977</v>
+        <v>1.023034104160448</v>
       </c>
       <c r="F10">
-        <v>1.029021133182991</v>
+        <v>1.028455694328759</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.053621550655868</v>
+        <v>1.052731219638814</v>
       </c>
       <c r="J10">
-        <v>1.038210817402265</v>
+        <v>1.037268685640383</v>
       </c>
       <c r="K10">
-        <v>1.044482071720274</v>
+        <v>1.042807429861472</v>
       </c>
       <c r="L10">
-        <v>1.037650956348814</v>
+        <v>1.036999562844058</v>
       </c>
       <c r="M10">
-        <v>1.042885453041381</v>
+        <v>1.042329501219633</v>
       </c>
       <c r="N10">
-        <v>1.015731298503658</v>
+        <v>1.016793825509042</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.0425645318112</v>
+        <v>1.042124561515878</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.042559296836215</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.041387550628005</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023514447391871</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.008232029316121</v>
+        <v>1.00739670216805</v>
       </c>
       <c r="D11">
-        <v>1.029211606154382</v>
+        <v>1.027677768649393</v>
       </c>
       <c r="E11">
-        <v>1.022390199136707</v>
+        <v>1.021835457966531</v>
       </c>
       <c r="F11">
-        <v>1.028148750015193</v>
+        <v>1.027672977759278</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.053076504423314</v>
+        <v>1.052287045181936</v>
       </c>
       <c r="J11">
-        <v>1.037266311367258</v>
+        <v>1.036464974565614</v>
       </c>
       <c r="K11">
-        <v>1.043602888153448</v>
+        <v>1.042095940599671</v>
       </c>
       <c r="L11">
-        <v>1.036901871077759</v>
+        <v>1.036357012193824</v>
       </c>
       <c r="M11">
-        <v>1.042558654055248</v>
+        <v>1.042091233862387</v>
       </c>
       <c r="N11">
-        <v>1.01557343921845</v>
+        <v>1.016913688656817</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.042739981464498</v>
+        <v>1.042370257814696</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.041970220985778</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.040920270207539</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.02344899435748</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.007710857244426</v>
+        <v>1.006889520377977</v>
       </c>
       <c r="D12">
-        <v>1.028897395724425</v>
+        <v>1.027390261981429</v>
       </c>
       <c r="E12">
-        <v>1.022270776764544</v>
+        <v>1.021713569165497</v>
       </c>
       <c r="F12">
-        <v>1.028306216445242</v>
+        <v>1.027832176749597</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.053026471519821</v>
+        <v>1.052251327195292</v>
       </c>
       <c r="J12">
-        <v>1.037192427267311</v>
+        <v>1.036405138527659</v>
       </c>
       <c r="K12">
-        <v>1.043491146232419</v>
+        <v>1.042010871312379</v>
       </c>
       <c r="L12">
-        <v>1.036983390136591</v>
+        <v>1.036436268667738</v>
       </c>
       <c r="M12">
-        <v>1.042910490253112</v>
+        <v>1.042444900064871</v>
       </c>
       <c r="N12">
-        <v>1.015681332618438</v>
+        <v>1.017078111571171</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.043343130653877</v>
+        <v>1.042974978045261</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.041891217206885</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.040860125599435</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.023492257600203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.008446645674903</v>
+        <v>1.007524040603135</v>
       </c>
       <c r="D13">
-        <v>1.029446141386194</v>
+        <v>1.027845865439109</v>
       </c>
       <c r="E13">
-        <v>1.023077732822011</v>
+        <v>1.022419681051569</v>
       </c>
       <c r="F13">
-        <v>1.029294057433894</v>
+        <v>1.028743822751844</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.053372370140427</v>
+        <v>1.052537619409218</v>
       </c>
       <c r="J13">
-        <v>1.037806450498846</v>
+        <v>1.036921878368949</v>
       </c>
       <c r="K13">
-        <v>1.04398792206227</v>
+        <v>1.042416033777142</v>
       </c>
       <c r="L13">
-        <v>1.03773316838055</v>
+        <v>1.037086965548454</v>
       </c>
       <c r="M13">
-        <v>1.04383853103814</v>
+        <v>1.043298047910294</v>
       </c>
       <c r="N13">
-        <v>1.016015405494644</v>
+        <v>1.017260070497051</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.044352352183644</v>
+        <v>1.043925086494665</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.04223997882837</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.041143866019228</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023629489559341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.009527876078516</v>
+        <v>1.008484170977966</v>
       </c>
       <c r="D14">
-        <v>1.030220178608233</v>
+        <v>1.02850205603862</v>
       </c>
       <c r="E14">
-        <v>1.024057278870778</v>
+        <v>1.023286714060023</v>
       </c>
       <c r="F14">
-        <v>1.030356828274825</v>
+        <v>1.029719880319076</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.053792398626116</v>
+        <v>1.05288349831379</v>
       </c>
       <c r="J14">
-        <v>1.038544682494406</v>
+        <v>1.037543365010249</v>
       </c>
       <c r="K14">
-        <v>1.044610087938872</v>
+        <v>1.042922055738444</v>
       </c>
       <c r="L14">
-        <v>1.038555730108226</v>
+        <v>1.037798855940396</v>
       </c>
       <c r="M14">
-        <v>1.044744349968876</v>
+        <v>1.044118538208675</v>
       </c>
       <c r="N14">
-        <v>1.016350221260317</v>
+        <v>1.017397142744365</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.045240992688786</v>
+        <v>1.044746338764458</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.04268127348685</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.041503177512024</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023768923261306</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.010074672876655</v>
+        <v>1.00897607326095</v>
       </c>
       <c r="D15">
-        <v>1.030606608220272</v>
+        <v>1.028833323163364</v>
       </c>
       <c r="E15">
-        <v>1.024511899638472</v>
+        <v>1.023692467329723</v>
       </c>
       <c r="F15">
-        <v>1.030817435632332</v>
+        <v>1.030142338205589</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.053987692152923</v>
+        <v>1.053044387351385</v>
       </c>
       <c r="J15">
-        <v>1.038885666514929</v>
+        <v>1.037831286804308</v>
       </c>
       <c r="K15">
-        <v>1.044904669488545</v>
+        <v>1.043162201688125</v>
       </c>
       <c r="L15">
-        <v>1.03891645771946</v>
+        <v>1.038111469281683</v>
       </c>
       <c r="M15">
-        <v>1.045111842135459</v>
+        <v>1.044448454578801</v>
       </c>
       <c r="N15">
-        <v>1.016487331779577</v>
+        <v>1.017442175065736</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.045568849789439</v>
+        <v>1.045044508896006</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.042895360823712</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.04167934899609</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023827651127545</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.01278882061467</v>
+        <v>1.011456978219331</v>
       </c>
       <c r="D16">
-        <v>1.032487444935266</v>
+        <v>1.030467449157255</v>
       </c>
       <c r="E16">
-        <v>1.02659740956149</v>
+        <v>1.025580997405373</v>
       </c>
       <c r="F16">
-        <v>1.032789584222979</v>
+        <v>1.031958184152362</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.054870349571331</v>
+        <v>1.053775391012393</v>
       </c>
       <c r="J16">
-        <v>1.04042887249634</v>
+        <v>1.039147938952046</v>
       </c>
       <c r="K16">
-        <v>1.046258868253946</v>
+        <v>1.044272434829442</v>
       </c>
       <c r="L16">
-        <v>1.040467171905558</v>
+        <v>1.039467876999339</v>
       </c>
       <c r="M16">
-        <v>1.046556002008291</v>
+        <v>1.04573838481546</v>
       </c>
       <c r="N16">
-        <v>1.017012163493503</v>
+        <v>1.017578824483118</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.046671762734607</v>
+        <v>1.046025500370906</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.043855940247403</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.04246773839082</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.02406006404153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.01430813266317</v>
+        <v>1.012869923603449</v>
       </c>
       <c r="D17">
-        <v>1.033528300442963</v>
+        <v>1.031387556398283</v>
       </c>
       <c r="E17">
-        <v>1.02768777797141</v>
+        <v>1.026586231205856</v>
       </c>
       <c r="F17">
-        <v>1.033743241739497</v>
+        <v>1.032843035415609</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.055326335588153</v>
+        <v>1.054158617981556</v>
       </c>
       <c r="J17">
-        <v>1.041227361162073</v>
+        <v>1.039842358042129</v>
       </c>
       <c r="K17">
-        <v>1.046972931597056</v>
+        <v>1.044866754250331</v>
       </c>
       <c r="L17">
-        <v>1.041227152675806</v>
+        <v>1.040143630286703</v>
       </c>
       <c r="M17">
-        <v>1.047184412373549</v>
+        <v>1.046298711566126</v>
       </c>
       <c r="N17">
-        <v>1.017240421307333</v>
+        <v>1.017641786494204</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.047040038584876</v>
+        <v>1.046339892167758</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.044363357936527</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.042890742749117</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.024166993138845</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.014912681123421</v>
+        <v>1.013459211362554</v>
       </c>
       <c r="D18">
-        <v>1.033914093347742</v>
+        <v>1.031744146261982</v>
       </c>
       <c r="E18">
-        <v>1.027975767283558</v>
+        <v>1.026870730259526</v>
       </c>
       <c r="F18">
-        <v>1.033840455786436</v>
+        <v>1.032934902814137</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.055439024309702</v>
+        <v>1.054255720627626</v>
       </c>
       <c r="J18">
-        <v>1.041423906886142</v>
+        <v>1.040023214626844</v>
       </c>
       <c r="K18">
-        <v>1.047172022710057</v>
+        <v>1.045036543000218</v>
       </c>
       <c r="L18">
-        <v>1.041328464408088</v>
+        <v>1.040241217518482</v>
       </c>
       <c r="M18">
-        <v>1.047099551768119</v>
+        <v>1.04620836264128</v>
       </c>
       <c r="N18">
-        <v>1.01721357954607</v>
+        <v>1.017593525859264</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.046736502943096</v>
+        <v>1.04603187257709</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.044492607973017</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.042998132898644</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.024161488131888</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.014704216925431</v>
+        <v>1.01330811096521</v>
       </c>
       <c r="D19">
-        <v>1.033727658179099</v>
+        <v>1.03160424637722</v>
       </c>
       <c r="E19">
-        <v>1.027546577636334</v>
+        <v>1.026502777261073</v>
       </c>
       <c r="F19">
-        <v>1.03316218426743</v>
+        <v>1.032301643088093</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.055254626410576</v>
+        <v>1.054102468603309</v>
       </c>
       <c r="J19">
-        <v>1.041091548309389</v>
+        <v>1.039745866658826</v>
       </c>
       <c r="K19">
-        <v>1.046926978984312</v>
+        <v>1.044837129583241</v>
       </c>
       <c r="L19">
-        <v>1.040844090543211</v>
+        <v>1.039817021575155</v>
       </c>
       <c r="M19">
-        <v>1.046370425633959</v>
+        <v>1.04552348382451</v>
       </c>
       <c r="N19">
-        <v>1.016972782106323</v>
+        <v>1.017434138367222</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.045836325445792</v>
+        <v>1.045166463378627</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.044325684585468</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.042864100439787</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.024061551103306</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.012198618930578</v>
+        <v>1.011065099766409</v>
       </c>
       <c r="D20">
-        <v>1.031908905879059</v>
+        <v>1.030044696035609</v>
       </c>
       <c r="E20">
-        <v>1.025110033569213</v>
+        <v>1.024312650632649</v>
       </c>
       <c r="F20">
-        <v>1.030360413540467</v>
+        <v>1.029688940632912</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.054226897939894</v>
+        <v>1.053237323667773</v>
       </c>
       <c r="J20">
-        <v>1.039267270070746</v>
+        <v>1.038176044578334</v>
       </c>
       <c r="K20">
-        <v>1.045412958422438</v>
+        <v>1.043579046884226</v>
       </c>
       <c r="L20">
-        <v>1.038725270002747</v>
+        <v>1.037941051342213</v>
       </c>
       <c r="M20">
-        <v>1.04388962324365</v>
+        <v>1.043229089458475</v>
       </c>
       <c r="N20">
-        <v>1.016121544219214</v>
+        <v>1.016948848103338</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.04334872550776</v>
+        <v>1.042825984813863</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.043259121994399</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.041978886820232</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023689330951779</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.006968037893089</v>
+        <v>1.006333062582474</v>
       </c>
       <c r="D21">
-        <v>1.028264207018261</v>
+        <v>1.026910735815838</v>
       </c>
       <c r="E21">
-        <v>1.020948383208186</v>
+        <v>1.020591005202938</v>
       </c>
       <c r="F21">
-        <v>1.026332458951114</v>
+        <v>1.026006558414377</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.052464910080905</v>
+        <v>1.05179217284233</v>
       </c>
       <c r="J21">
-        <v>1.036177289772295</v>
+        <v>1.03556836681243</v>
       </c>
       <c r="K21">
-        <v>1.04272918640302</v>
+        <v>1.041399602975633</v>
       </c>
       <c r="L21">
-        <v>1.035543461189012</v>
+        <v>1.035192500584696</v>
       </c>
       <c r="M21">
-        <v>1.040831557192135</v>
+        <v>1.040511429196185</v>
       </c>
       <c r="N21">
-        <v>1.01499165849299</v>
+        <v>1.016655601366484</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.040887829058938</v>
+        <v>1.040634469305849</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.041364836711333</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.040441507518991</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023211666195412</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.003640168018481</v>
+        <v>1.003322368388888</v>
       </c>
       <c r="D22">
-        <v>1.025947522642843</v>
+        <v>1.024918534223896</v>
       </c>
       <c r="E22">
-        <v>1.018329419446539</v>
+        <v>1.0182528464449</v>
       </c>
       <c r="F22">
-        <v>1.023827516697216</v>
+        <v>1.023722117512331</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.051338982899488</v>
+        <v>1.050866965676464</v>
       </c>
       <c r="J22">
-        <v>1.034221417616402</v>
+        <v>1.033917428682551</v>
       </c>
       <c r="K22">
-        <v>1.041021902890867</v>
+        <v>1.040012001740002</v>
       </c>
       <c r="L22">
-        <v>1.033546306995335</v>
+        <v>1.033471180545034</v>
       </c>
       <c r="M22">
-        <v>1.038941276768831</v>
+        <v>1.038837840962317</v>
       </c>
       <c r="N22">
-        <v>1.014280185734847</v>
+        <v>1.016468431629415</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.03939179809475</v>
+        <v>1.039309935458282</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.040144347915679</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.0394457428246</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022908130411642</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.005395460329654</v>
+        <v>1.004896669552811</v>
       </c>
       <c r="D23">
-        <v>1.027162665542323</v>
+        <v>1.025951613997928</v>
       </c>
       <c r="E23">
-        <v>1.019707291676772</v>
+        <v>1.019470031937124</v>
       </c>
       <c r="F23">
-        <v>1.025147917087372</v>
+        <v>1.024916451734131</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.051928761461878</v>
+        <v>1.051343445235484</v>
       </c>
       <c r="J23">
-        <v>1.035247370506019</v>
+        <v>1.03476961039441</v>
       </c>
       <c r="K23">
-        <v>1.041913757334381</v>
+        <v>1.040724590784903</v>
       </c>
       <c r="L23">
-        <v>1.034594184890788</v>
+        <v>1.034361289382859</v>
       </c>
       <c r="M23">
-        <v>1.03993545466391</v>
+        <v>1.039708188339288</v>
       </c>
       <c r="N23">
-        <v>1.014647888917156</v>
+        <v>1.016515414982109</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.040178624022394</v>
+        <v>1.039998757861507</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.040765360809446</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.039939062069022</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.023058223814474</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.012181796159983</v>
+        <v>1.011057722406759</v>
       </c>
       <c r="D24">
-        <v>1.031880890495448</v>
+        <v>1.030023276922721</v>
       </c>
       <c r="E24">
-        <v>1.025055557629888</v>
+        <v>1.024268648136494</v>
       </c>
       <c r="F24">
-        <v>1.03027555282311</v>
+        <v>1.029611782331115</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.054197093455523</v>
+        <v>1.05321228369612</v>
       </c>
       <c r="J24">
-        <v>1.039218849588841</v>
+        <v>1.038136659774138</v>
       </c>
       <c r="K24">
-        <v>1.045370354534457</v>
+        <v>1.043542895336582</v>
       </c>
       <c r="L24">
-        <v>1.038656507050616</v>
+        <v>1.037882573896658</v>
       </c>
       <c r="M24">
-        <v>1.043791067881966</v>
+        <v>1.043138099390893</v>
       </c>
       <c r="N24">
-        <v>1.016080247598353</v>
+        <v>1.016919803613336</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.043230078291697</v>
+        <v>1.042713299275386</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.043201863367995</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.041923503802733</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023668898022116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.019765486497286</v>
+        <v>1.018153160183629</v>
       </c>
       <c r="D25">
-        <v>1.037171344861268</v>
+        <v>1.034750329773452</v>
       </c>
       <c r="E25">
-        <v>1.031063777864009</v>
+        <v>1.029857587030241</v>
       </c>
       <c r="F25">
-        <v>1.036050496977053</v>
+        <v>1.035055131393406</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.056689174639243</v>
+        <v>1.055367913498106</v>
       </c>
       <c r="J25">
-        <v>1.043645493676088</v>
+        <v>1.042084670443884</v>
       </c>
       <c r="K25">
-        <v>1.049218781312132</v>
+        <v>1.046832121006111</v>
       </c>
       <c r="L25">
-        <v>1.043198274532423</v>
+        <v>1.042009431995554</v>
       </c>
       <c r="M25">
-        <v>1.04811381328622</v>
+        <v>1.047132586232664</v>
       </c>
       <c r="N25">
-        <v>1.017675623042702</v>
+        <v>1.017972647989606</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.046651220548328</v>
+        <v>1.045874651268947</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.045920008267215</v>
+        <v>1.044245960211747</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.024406636653606</v>
       </c>
     </row>
   </sheetData>
